--- a/output/Data.xlsx
+++ b/output/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Competative</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,10 @@
   </si>
   <si>
     <t>Knowledge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-Means</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,13 +138,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +475,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -482,27 +486,27 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -533,337 +537,431 @@
       <c r="J2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
+      <c r="K2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.71683394</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>4.752236E-2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>30.8990951</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.40448611000000001</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.71777709000000001</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>1.4011829899999999</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>0.80118995999999998</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>0.53144376999999998</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>3.1166915899999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
+      <c r="K3" s="2">
+        <v>0.59063639999999995</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.047882</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.1136083000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.83348646000000004</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2.3601899999999999E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>83.566049379999995</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0.32836114</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0.87720100999999995</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>1.4110224</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>1.06028499</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>0.58338632000000001</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>4.2310481299999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
+      <c r="K4" s="2">
+        <v>0.62936747000000004</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.90506703030000002</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.55531533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1.2191052200000001</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.15226785000000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>16.757777189999999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0.74331144000000005</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>1.07696451</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>1.56038667</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>1.44177088</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>0.85431721000000005</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>3.6577738599999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
+      <c r="K5" s="2">
+        <v>1.1955881900000001</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.49730159000000002</v>
+      </c>
+      <c r="M5" s="2">
+        <v>4.8094656699999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.40618773000000002</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.21847868000000001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>10.406455640000001</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>8.9135820000000004E-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0.49930471999999998</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>1.67677141</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>0.50679574999999999</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>0.41338212000000002</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>3.8730824300000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2" t="s">
+      <c r="K6" s="2">
+        <v>0.16955313</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.95236171999999997</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.74022823000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1.0151045299999999</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.59316859</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>3.5723655299999999</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0.60871562999999995</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0.99019736999999997</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>1.34749743</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>0.92442860000000004</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>0.61471866200000003</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>3.8609247887000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2" t="s">
+      <c r="K7" s="2">
+        <v>0.93598380999999997</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.99750189</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1.89190379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>0.37466661000000001</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.31914316999999998</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>7.46718949</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>7.8718270000000007E-2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0.46701345999999999</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>1.5849616799999999</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>0.67328531999999996</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>0.58005954000000004</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>3.4964998</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
+      <c r="K8" s="2">
+        <v>0.24599254000000001</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.24599254000000001</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.85676072999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>0.92647199999999996</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>5.3268999999999997E-2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>34.784328000000002</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>0.15976631999999999</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0.68725630000000004</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>2.24766026</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>0.99618819000000003</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>0.72048677999999999</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>3.2077884299999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
+      <c r="K9" s="2">
+        <v>0.96245700000000001</v>
+      </c>
+      <c r="L9" s="2">
+        <v>4.755547</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.40477200000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>0.54163561000000005</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2.4059569999999999E-2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>45.026434139999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>0.23545809000000001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0.4599722</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>1.2655058299999999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>0.54547820000000002</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>0.40572514999999998</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>2.8609566000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
+      <c r="K10" s="2">
+        <v>0.35194123999999999</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.002596</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.69125378000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1.3465755100000001</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.86847238000000004</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>3.1023847600000001</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.81116790999999999</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>1.2909250800000001</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>1.6748337600000001</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>2.4481794899999998</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>1.3462511100000001</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>4.0391450400000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
+      <c r="K11" s="2">
+        <v>1.1855586199999999</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.5428286200000001</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1.5368640200000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>0.46606515999999998</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.35911134</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>8.0602073599999997</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>0.14882076</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0.14882076</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>1.6655219999999999</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>0.37517441000000001</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>0.32677494000000001</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>3.5938923300000001</v>
       </c>
+      <c r="K12" s="2">
+        <v>0.3891424</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.60359423000000001</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1.5315899500000001</v>
+      </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
